--- a/data/Data_Obat.xlsx
+++ b/data/Data_Obat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yopi Saputra\Desktop\TA FIX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32566044-3EDC-4C96-AED4-E1FDE14A361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F01EE1-135A-4D52-B3DB-43B4A822A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="526" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parasetamol" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="18">
   <si>
     <t>Januari</t>
   </si>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,24 +293,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -332,15 +314,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:U41"/>
+  <dimension ref="B3:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A41" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,16 +681,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -1030,47 +1029,25 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-    </row>
-    <row r="24" spans="2:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
       <c r="C25" s="4">
         <v>2015</v>
       </c>
@@ -1092,19 +1069,17 @@
       <c r="I25" s="4">
         <v>2021</v>
       </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="22"/>
-    </row>
-    <row r="26" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="6">
@@ -1119,28 +1094,26 @@
       <c r="F26" s="6">
         <v>0.26336174000000001</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="13">
         <v>0.19635941000000001</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="13">
         <v>0.87606507</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="13">
         <v>0.53059643999999995</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="22"/>
-    </row>
-    <row r="27" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="6">
@@ -1155,28 +1128,26 @@
       <c r="F27" s="6">
         <v>9.9535239999999997E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="13">
         <v>0.60883036000000001</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="13">
         <v>0.61502710999999999</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="13">
         <v>0.25716498999999998</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="22"/>
-    </row>
-    <row r="28" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="6">
@@ -1191,28 +1162,26 @@
       <c r="F28" s="6">
         <v>0.75251743000000004</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="13">
         <v>0.59024012000000003</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <v>0.47792409000000002</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="22"/>
-    </row>
-    <row r="29" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="6">
@@ -1227,28 +1196,26 @@
       <c r="F29" s="6">
         <v>0.36909373000000001</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="13">
         <v>0.92099147999999997</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="13">
         <v>5.8869089999999999E-2</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="13">
         <v>0.24051122999999999</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="22"/>
-    </row>
-    <row r="30" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="6">
@@ -1263,28 +1230,26 @@
       <c r="F30" s="6">
         <v>0.24980635000000001</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="13">
         <v>1</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="13">
         <v>0.2908598</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="13">
         <v>0.42563904000000002</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="22"/>
-    </row>
-    <row r="31" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+    </row>
+    <row r="31" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="6">
@@ -1299,28 +1264,26 @@
       <c r="F31" s="6">
         <v>0.35553834000000001</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="13">
         <v>0.30015491999999999</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="13">
         <v>0.66150271000000005</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <v>0.26219985000000001</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="22"/>
-    </row>
-    <row r="32" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="M31" s="17"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+    </row>
+    <row r="32" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="6">
@@ -1335,28 +1298,26 @@
       <c r="F32" s="6">
         <v>0.56738962000000004</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="13">
         <v>0.15414406999999999</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="13">
         <v>0.36096050000000002</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="13">
         <v>0.87064291000000005</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="22"/>
-    </row>
-    <row r="33" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="M32" s="17"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="6">
@@ -1371,28 +1332,26 @@
       <c r="F33" s="6">
         <v>0.75716499000000004</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="13">
         <v>1.3942680000000001E-2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="13">
         <v>0.64446166000000005</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="13">
         <v>0.70759101000000002</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="22"/>
-    </row>
-    <row r="34" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="M33" s="17"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="6">
@@ -1407,28 +1366,26 @@
       <c r="F34" s="6">
         <v>0.59682416999999999</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="13">
         <v>0.39814097999999998</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="13">
         <v>0.53485669999999996</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="13">
         <v>0.42718823</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="22"/>
-    </row>
-    <row r="35" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="M34" s="17"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="6">
@@ -1443,28 +1400,26 @@
       <c r="F35" s="6">
         <v>0.10883036</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="13">
         <v>0.56622773000000004</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="13">
         <v>0.82958947000000005</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="13">
         <v>0.95778465999999995</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="22"/>
-    </row>
-    <row r="36" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="M35" s="17"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+    </row>
+    <row r="36" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="6">
@@ -1479,28 +1434,26 @@
       <c r="F36" s="6">
         <v>0.77691712000000002</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="13">
         <v>0.77691712000000002</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="13">
         <v>0.8954299</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="13">
         <v>0.48567001999999998</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="22"/>
-    </row>
-    <row r="37" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="M36" s="17"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+    </row>
+    <row r="37" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="6">
@@ -1515,78 +1468,686 @@
       <c r="F37" s="6">
         <v>0.85824942000000004</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="13">
         <v>0.87219210000000003</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="13">
         <v>0.87838885</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="13">
         <v>0.85205266999999996</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="22"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+    </row>
+    <row r="45" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.51057569999999997</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.51919130000000002</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.58572846999999995</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.58670752999999998</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.57600843999999995</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.43959048000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>0.48924023</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.41285359999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.50683590000000001</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.48966359999999998</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.47206890000000001</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.24387069</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>0.37212582999999999</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.39782430000000002</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.44755495000000001</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.54938050000000005</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.28075499999999998</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.18992004000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>0.37647232000000003</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.60045605999999996</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.61273043999999999</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.56854579999999999</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.16927940999999999</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.50204309999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>0.38829102999999998</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.58543639999999997</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.47432340000000001</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.62454175999999995</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.34512007</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.43418473000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.54906063999999999</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.56469404999999995</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.39586169999999998</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.40463194000000002</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.57391210000000004</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0.59288852999999997</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.52039002999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.43915144</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.60841049999999997</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.42438608</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.59345610000000004</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.27278444000000002</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.60789850000000001</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.52948594000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.45475692000000001</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.43224960000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.58749633999999995</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.57172935999999996</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.18533250000000001</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0.60709440000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.59808090000000003</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.47821512999999999</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.43445504000000001</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.58256059999999998</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.44141960000000002</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0.55645330000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.46752285999999998</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.48672372000000003</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.40336874</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.45727723999999997</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.57958929999999997</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0.40444904999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.44572535000000002</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.60890966999999996</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.43066864999999999</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.32104551999999997</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.6002075</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0.58621942999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.60661434999999997</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.57060520000000003</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.42523912000000003</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.59169539999999998</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.58563392999999997</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0.3855053</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>13325.307000000001</v>
+      </c>
+      <c r="E68" s="6">
+        <v>13347.552</v>
+      </c>
+      <c r="F68" s="6">
+        <v>13519.351000000001</v>
+      </c>
+      <c r="G68" s="13">
+        <v>13521.879000000001</v>
+      </c>
+      <c r="H68" s="13">
+        <v>13494.254000000001</v>
+      </c>
+      <c r="I68" s="13">
+        <v>13142.022000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>13270.218000000001</v>
+      </c>
+      <c r="E69" s="6">
+        <v>13072.987999999999</v>
+      </c>
+      <c r="F69" s="6">
+        <v>13315.65</v>
+      </c>
+      <c r="G69" s="13">
+        <v>13271.311</v>
+      </c>
+      <c r="H69" s="13">
+        <v>13225.883</v>
+      </c>
+      <c r="I69" s="13">
+        <v>12636.674000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>12967.829</v>
+      </c>
+      <c r="E70" s="6">
+        <v>13034.182000000001</v>
+      </c>
+      <c r="F70" s="6">
+        <v>13162.587</v>
+      </c>
+      <c r="G70" s="13">
+        <v>13425.501</v>
+      </c>
+      <c r="H70" s="13">
+        <v>12731.909</v>
+      </c>
+      <c r="I70" s="13">
+        <v>12497.374</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>12979.052</v>
+      </c>
+      <c r="E71" s="6">
+        <v>13557.378000000001</v>
+      </c>
+      <c r="F71" s="6">
+        <v>13589.069</v>
+      </c>
+      <c r="G71" s="13">
+        <v>13474.985000000001</v>
+      </c>
+      <c r="H71" s="13">
+        <v>12444.079</v>
+      </c>
+      <c r="I71" s="13">
+        <v>13303.275</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>13009.566999999999</v>
+      </c>
+      <c r="E72" s="6">
+        <v>13518.597</v>
+      </c>
+      <c r="F72" s="6">
+        <v>13231.703</v>
+      </c>
+      <c r="G72" s="13">
+        <v>13619.566000000001</v>
+      </c>
+      <c r="H72" s="13">
+        <v>12898.101000000001</v>
+      </c>
+      <c r="I72" s="13">
+        <v>13128.065000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>13424.674999999999</v>
+      </c>
+      <c r="D73" s="6">
+        <v>13465.04</v>
+      </c>
+      <c r="E73" s="6">
+        <v>13029.114</v>
+      </c>
+      <c r="F73" s="6">
+        <v>13051.76</v>
+      </c>
+      <c r="G73" s="13">
+        <v>13488.841</v>
+      </c>
+      <c r="H73" s="13">
+        <v>13537.839</v>
+      </c>
+      <c r="I73" s="13">
+        <v>13350.646000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6">
+        <v>13140.89</v>
+      </c>
+      <c r="D74" s="6">
+        <v>13577.915999999999</v>
+      </c>
+      <c r="E74" s="6">
+        <v>13102.764999999999</v>
+      </c>
+      <c r="F74" s="6">
+        <v>13539.304</v>
+      </c>
+      <c r="G74" s="13">
+        <v>12711.33</v>
+      </c>
+      <c r="H74" s="13">
+        <v>13576.593999999999</v>
+      </c>
+      <c r="I74" s="13">
+        <v>13374.133</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6">
+        <v>13181.183000000001</v>
+      </c>
+      <c r="D75" s="6">
+        <v>13123.067999999999</v>
+      </c>
+      <c r="E75" s="6">
+        <v>13523.915000000001</v>
+      </c>
+      <c r="F75" s="6">
+        <v>13483.205</v>
+      </c>
+      <c r="G75" s="13">
+        <v>12485.528</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>13574.519</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <v>13551.245000000001</v>
+      </c>
+      <c r="D76" s="6">
+        <v>13241.751</v>
+      </c>
+      <c r="E76" s="6">
+        <v>13128.763999999999</v>
+      </c>
+      <c r="F76" s="6">
+        <v>13511.171</v>
+      </c>
+      <c r="G76" s="13">
+        <v>13146.745000000001</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>13443.762000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>13214.145</v>
+      </c>
+      <c r="D77" s="6">
+        <v>13263.721</v>
+      </c>
+      <c r="E77" s="6">
+        <v>13048.498</v>
+      </c>
+      <c r="F77" s="6">
+        <v>13187.689</v>
+      </c>
+      <c r="G77" s="13">
+        <v>13503.499</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>13051.287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <v>13157.861999999999</v>
+      </c>
+      <c r="D78" s="6">
+        <v>13579.204</v>
+      </c>
+      <c r="E78" s="6">
+        <v>13118.986000000001</v>
+      </c>
+      <c r="F78" s="6">
+        <v>12835.94</v>
+      </c>
+      <c r="G78" s="13">
+        <v>13556.736000000001</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>13520.619000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6">
+        <v>13573.278</v>
+      </c>
+      <c r="D79" s="6">
+        <v>13480.303</v>
+      </c>
+      <c r="E79" s="6">
+        <v>13104.967000000001</v>
+      </c>
+      <c r="F79" s="6">
+        <v>13534.758</v>
+      </c>
+      <c r="G79" s="13">
+        <v>13519.107</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>13002.375</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1595,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:I37"/>
+  <dimension ref="B3:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I37"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,16 +2174,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -1961,357 +2522,1015 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="17">
+      <c r="B25" s="14"/>
+      <c r="C25" s="11">
         <v>2015</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <v>2016</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>2017</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>2018</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>2019</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="11">
         <v>2020</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>2021</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="12">
         <v>2.48062E-2</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="12">
         <v>0.13850129</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="12">
         <v>0.34005168000000002</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="12">
         <v>0.98708010000000002</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="12">
         <v>0.97777778000000004</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="12">
         <v>0.37881136999999998</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="12">
         <v>0.75762273999999996</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="12">
         <v>0.34056848000000001</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="12">
         <v>0.88165375000000001</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <v>0.68320413000000002</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="12">
         <v>0.66253229999999996</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="12">
         <v>0.56227389999999999</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="12">
         <v>0.56950904000000002</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="12">
         <v>0.66459948000000002</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="12">
         <v>0.99018088000000004</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="12">
         <v>0.78242893999999996</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="12">
         <v>0.73333333000000001</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="12">
         <v>0.33436693000000001</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="12">
         <v>0.48423772999999998</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="12">
         <v>0.93333332999999996</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="12">
         <v>0.87958656000000002</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>0.69870801000000005</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="12">
         <v>0.88372092999999996</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="12">
         <v>0.99328165000000002</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="12">
         <v>0.94521964000000003</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="12">
         <v>1.6020670000000001E-2</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="12">
         <v>0.91782945999999999</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="12">
         <v>0.31317829000000003</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="12">
         <v>0.75555556000000001</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="12">
         <v>0.94470284000000004</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="12">
         <v>0.55090439000000002</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="12">
         <v>0.28630491000000002</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="12">
         <v>5.5297159999999998E-2</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="12">
         <v>0.44031007999999999</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="12">
         <v>0.62015503999999999</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="12">
         <v>0.98087855000000002</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="12">
         <v>0.90077518999999995</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="12">
         <v>0.73333333000000001</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="12">
         <v>3.3074939999999997E-2</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <v>0.56330749000000002</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="12">
         <v>2.7906980000000001E-2</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="12">
         <v>0.53488371999999995</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="12">
         <v>0.40775193999999998</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="12">
         <v>0.66666667000000002</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="12">
         <v>0.55710594000000002</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="12">
         <v>0.88785530000000001</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="12">
         <v>0.88475451999999999</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="12">
         <v>0.63875968999999999</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="12">
         <v>0.55555555999999995</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="12">
         <v>0.40155038999999998</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="12">
         <v>0</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="12">
         <v>0.97260981999999996</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="12">
         <v>0.69974159999999996</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="12">
         <v>0.68992248</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="12">
         <v>0.85271317999999996</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="12">
         <v>0.88837208999999995</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="12">
         <v>0.95813952999999996</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="12">
         <v>0.66976743999999999</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="12">
         <v>0.97260981999999996</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="12">
         <v>0.29870801000000002</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="12">
         <v>0.72816537000000003</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="12">
         <v>0.51059432000000005</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="12">
         <v>0.62687338999999997</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="12">
         <v>0.31472867999999998</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="12">
         <v>0.81498707999999997</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="12">
         <v>0.85219637999999998</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="12">
         <v>0.66098190999999995</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="12">
         <v>0.80361757</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="12">
         <v>0.96175710999999997</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="12">
         <v>0.76072351000000005</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="12">
         <v>0.91731266</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="12">
         <v>0.57105943000000003</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="12">
         <v>0.10904393</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="12">
         <v>1</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <v>0.89612402999999996</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="12">
         <v>0.43565891000000001</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="12">
         <v>0.61860464999999998</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="12">
         <v>0.78708009999999995</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="12">
         <v>0.32816537000000001</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="12">
         <v>6.3049099999999997E-2</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="12">
         <v>0.75400517</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="12">
         <v>0.89509044000000004</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="12">
         <v>0.86666666999999997</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="12">
         <v>0.57312660999999998</v>
       </c>
     </row>
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.49089321000000002</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.56535670000000005</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.66426059999999998</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.53051309999999996</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.55875819999999998</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.79950869999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>0.53408480000000003</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.61318139999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.73235709999999998</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.66237025999999999</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.44563093999999998</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.49473225999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>0.76804810000000001</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.7008569</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.47228065000000002</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.42847547000000002</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.68153799999999998</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.61540779999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>0.47936958000000002</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.62563323999999998</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.6945209</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.60994625000000002</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.61980926999999997</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.61767260000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>0.73308530000000005</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.68583225999999997</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.67504869999999995</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.45678057999999999</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.57835190000000003</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.43113230000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.70649300000000004</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.57172084000000001</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.45291652999999998</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.39998496</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.73998207000000005</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0.47921156999999998</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.76934939999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.59201990000000004</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.53253656999999999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.69066819999999995</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.73864920000000001</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.74244279999999996</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.51508856000000003</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.51080482999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.43093228</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.4815564</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.47526127000000001</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.71724589999999999</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.69753770000000004</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0.68996274000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.67251855000000005</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.45192164000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.7293615</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.49287809999999999</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.61175690000000005</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0.66364809999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.65465266</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.80549309999999996</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.54443496000000002</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.65322983000000001</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.64469220000000005</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0.49924454000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.42037848</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.5679786</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.55674182999999999</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.68572860000000002</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.57046604000000001</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0.68314074999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.83460045000000005</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.62952673000000003</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.42396548000000001</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.62378929999999999</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.59006493999999998</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0.50389903999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>7338.8783999999996</v>
+      </c>
+      <c r="E68" s="6">
+        <v>7482.9652999999998</v>
+      </c>
+      <c r="F68" s="6">
+        <v>7674.3440000000001</v>
+      </c>
+      <c r="G68" s="13">
+        <v>7415.5429999999997</v>
+      </c>
+      <c r="H68" s="13">
+        <v>7470.1972999999998</v>
+      </c>
+      <c r="I68" s="13">
+        <v>7936.0492999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>7422.4539999999997</v>
+      </c>
+      <c r="E69" s="6">
+        <v>7575.5060000000003</v>
+      </c>
+      <c r="F69" s="6">
+        <v>7806.1109999999999</v>
+      </c>
+      <c r="G69" s="13">
+        <v>7670.6864999999998</v>
+      </c>
+      <c r="H69" s="13">
+        <v>7251.2960000000003</v>
+      </c>
+      <c r="I69" s="13">
+        <v>7346.3065999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>7875.1733000000004</v>
+      </c>
+      <c r="E70" s="6">
+        <v>7745.1576999999997</v>
+      </c>
+      <c r="F70" s="6">
+        <v>7302.8630000000003</v>
+      </c>
+      <c r="G70" s="13">
+        <v>7218.1</v>
+      </c>
+      <c r="H70" s="13">
+        <v>7707.7759999999998</v>
+      </c>
+      <c r="I70" s="13">
+        <v>7579.8140000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>7316.5806000000002</v>
+      </c>
+      <c r="E71" s="6">
+        <v>7599.6005999999998</v>
+      </c>
+      <c r="F71" s="6">
+        <v>7732.8980000000001</v>
+      </c>
+      <c r="G71" s="13">
+        <v>7569.2460000000001</v>
+      </c>
+      <c r="H71" s="13">
+        <v>7588.3306000000002</v>
+      </c>
+      <c r="I71" s="13">
+        <v>7584.1970000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>7807.52</v>
+      </c>
+      <c r="E72" s="6">
+        <v>7716.0853999999999</v>
+      </c>
+      <c r="F72" s="6">
+        <v>7695.2190000000001</v>
+      </c>
+      <c r="G72" s="13">
+        <v>7272.87</v>
+      </c>
+      <c r="H72" s="13">
+        <v>7508.1112999999996</v>
+      </c>
+      <c r="I72" s="13">
+        <v>7223.241</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>7756.0640000000003</v>
+      </c>
+      <c r="D73" s="6">
+        <v>7495.28</v>
+      </c>
+      <c r="E73" s="6">
+        <v>7265.393</v>
+      </c>
+      <c r="F73" s="6">
+        <v>7162.9706999999999</v>
+      </c>
+      <c r="G73" s="13">
+        <v>7820.8657000000003</v>
+      </c>
+      <c r="H73" s="13">
+        <v>7316.2744000000002</v>
+      </c>
+      <c r="I73" s="13">
+        <v>7877.6913999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6">
+        <v>7534.5586000000003</v>
+      </c>
+      <c r="D74" s="6">
+        <v>7419.4579999999996</v>
+      </c>
+      <c r="E74" s="6">
+        <v>7725.4430000000002</v>
+      </c>
+      <c r="F74" s="6">
+        <v>7818.2866000000004</v>
+      </c>
+      <c r="G74" s="13">
+        <v>7825.6265000000003</v>
+      </c>
+      <c r="H74" s="13">
+        <v>7385.6962999999996</v>
+      </c>
+      <c r="I74" s="13">
+        <v>7377.4076999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6">
+        <v>7222.8540000000003</v>
+      </c>
+      <c r="D75" s="6">
+        <v>7320.8114999999998</v>
+      </c>
+      <c r="E75" s="6">
+        <v>7308.6304</v>
+      </c>
+      <c r="F75" s="6">
+        <v>7776.8710000000001</v>
+      </c>
+      <c r="G75" s="13">
+        <v>7738.7353999999996</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>7724.0775999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <v>7690.3230000000003</v>
+      </c>
+      <c r="D76" s="6">
+        <v>7263.4687999999996</v>
+      </c>
+      <c r="E76" s="6">
+        <v>7800.3145000000004</v>
+      </c>
+      <c r="F76" s="6">
+        <v>7342.7187999999996</v>
+      </c>
+      <c r="G76" s="13">
+        <v>7572.7494999999999</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>7673.1589999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>7655.7529999999997</v>
+      </c>
+      <c r="D77" s="6">
+        <v>7947.6289999999999</v>
+      </c>
+      <c r="E77" s="6">
+        <v>7442.482</v>
+      </c>
+      <c r="F77" s="6">
+        <v>7652.9994999999999</v>
+      </c>
+      <c r="G77" s="13">
+        <v>7636.4795000000004</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>7355.0379999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <v>7202.4326000000001</v>
+      </c>
+      <c r="D78" s="6">
+        <v>7488.0385999999999</v>
+      </c>
+      <c r="E78" s="6">
+        <v>7466.2954</v>
+      </c>
+      <c r="F78" s="6">
+        <v>7715.8850000000002</v>
+      </c>
+      <c r="G78" s="13">
+        <v>7492.8519999999999</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>7710.8774000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6">
+        <v>8003.9520000000002</v>
+      </c>
+      <c r="D79" s="6">
+        <v>7607.1342999999997</v>
+      </c>
+      <c r="E79" s="6">
+        <v>7209.3729999999996</v>
+      </c>
+      <c r="F79" s="6">
+        <v>7596.0320000000002</v>
+      </c>
+      <c r="G79" s="13">
+        <v>7530.7759999999998</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>7364.0450000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2320,10 +3539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B3:I37"/>
+  <dimension ref="B3:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2336,16 +3555,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -2684,19 +3903,19 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="4">
         <v>2015</v>
       </c>
@@ -2720,321 +3939,979 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="13">
         <v>0.2560154</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="13">
         <v>0.48508181</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="13">
         <v>0.73724734999999997</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="13">
         <v>2.8873900000000001E-3</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="13">
         <v>0.47738209999999998</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="13">
         <v>0.34119346</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="13">
         <v>0.57795958000000003</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="13">
         <v>0.68912415999999999</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="13">
         <v>0.32820019</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="13">
         <v>0.25360924000000001</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="13">
         <v>0.25360924000000001</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="13">
         <v>0.56256015000000004</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="13">
         <v>0.81568816</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="13">
         <v>0.24639075999999999</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <v>0.2560154</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <v>0.46342636999999998</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="13">
         <v>0.42011549999999998</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="13">
         <v>0.62945139999999999</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="13">
         <v>0.30317612999999999</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="13">
         <v>0.28681424</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="13">
         <v>0.45765159</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="13">
         <v>0.29018286999999998</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="13">
         <v>5.2935500000000002E-3</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="13">
         <v>0.80413858999999999</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="13">
         <v>0.78103946000000002</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="13">
         <v>0.50336862000000004</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="13">
         <v>0.33349373999999998</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="13">
         <v>0.29018286999999998</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="13">
         <v>0.35129933000000002</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="13">
         <v>0.28873916999999999</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="13">
         <v>0.39076034999999998</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="13">
         <v>0.80461983000000004</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="13">
         <v>0.37728584999999998</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="13">
         <v>0.52165543999999997</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="13">
         <v>0.67420597000000004</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="13">
         <v>0.98315688000000001</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="13">
         <v>0.18094320999999999</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="13">
         <v>0.33012511999999999</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="13">
         <v>0.70163618999999999</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="13">
         <v>0.23628489</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="13">
         <v>0.43888354000000002</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="13">
         <v>0.57603464999999998</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="13">
         <v>2.4061600000000001E-3</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="13">
         <v>0.37102984</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="13">
         <v>0.77333974999999999</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="13">
         <v>0.97064485</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="13">
         <v>7.6997100000000002E-3</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="13">
         <v>0.41337825</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="13">
         <v>0.16217517000000001</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="13">
         <v>0.73965351000000001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="13">
         <v>0.36669875000000002</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>0.63282002000000004</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="13">
         <v>0.50048123</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="13">
         <v>0.48604427</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="13">
         <v>0.78970163999999998</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="13">
         <v>0.21029835999999999</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="13">
         <v>0.20981712999999999</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="13">
         <v>0.79836381000000001</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="13">
         <v>0.34167469</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="13">
         <v>3.8498600000000001E-3</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="13">
         <v>0.97208855000000005</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="13">
         <v>0.48796919999999999</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="13">
         <v>0.26034648999999999</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="13">
         <v>0.2574591</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="13">
         <v>0.97256978000000005</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="13">
         <v>0.47305100999999999</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="13">
         <v>0.50048123</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="13">
         <v>0.55197304999999997</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="13">
         <v>0.45524543000000001</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="13">
         <v>0</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="13">
         <v>0.51973051000000003</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="13">
         <v>0.42877767</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="13">
         <v>0.97641962999999998</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="13">
         <v>0.76900866000000001</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="13">
         <v>0.49470645000000002</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="13">
         <v>0.42877767</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="13">
         <v>0.46631376000000002</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="13">
         <v>0.40712222999999997</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="13">
         <v>0.28873916999999999</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="13">
         <v>0.28825793999999999</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="13">
         <v>0.79018286999999998</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="13">
         <v>0.66073146999999999</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="13">
         <v>0.45668912</v>
       </c>
     </row>
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.40865385999999998</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.48772344000000001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.44727927000000001</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.44256592</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.41897030000000002</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.49719906000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>0.55679387000000002</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.43622084999999999</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.33150449999999998</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.38898569999999999</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.57699025000000004</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.45856259999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>0.41820364999999998</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.494618</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.38536619999999999</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.45042217000000001</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.49536014</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.43012245999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>0.53736143999999997</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.39184415</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.52694050000000003</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.46997485</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.34486287999999998</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.43601974999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>0.46868333000000001</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.34466580000000002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.40011254000000002</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.54677372999999996</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.36066133</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.44033660000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.47281669999999998</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.48744226000000002</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.35549152000000001</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.57617470000000004</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.55965480000000001</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0.45295565999999998</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.4734468</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.46697894000000001</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.4378089</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.48629169999999999</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.44973512999999998</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.54065010000000002</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.3848337</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.53374182999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.47845206000000001</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.43592399999999998</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.3884706</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.54608685000000001</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.55170560000000002</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0.49418825</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.43329319999999999</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.35483605000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.55092627000000005</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.52311635000000001</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.39281082</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0.53231580000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.45408735</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.34498075</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.42110047</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.47298299999999999</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.32178639999999997</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0.52134020000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.42026022000000002</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.33465414999999998</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.56512063999999995</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.50657039999999998</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.4491117</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0.45146770000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.39563011999999997</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.56822859999999997</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.53598089999999998</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.55341344999999997</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.55199902999999995</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0.47413240000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>6252.183</v>
+      </c>
+      <c r="E68" s="6">
+        <v>6416.4893000000002</v>
+      </c>
+      <c r="F68" s="6">
+        <v>6332.4462999999996</v>
+      </c>
+      <c r="G68" s="13">
+        <v>6322.652</v>
+      </c>
+      <c r="H68" s="13">
+        <v>6273.62</v>
+      </c>
+      <c r="I68" s="13">
+        <v>6436.1796999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>6560.0176000000001</v>
+      </c>
+      <c r="E69" s="6">
+        <v>6309.4669999999996</v>
+      </c>
+      <c r="F69" s="6">
+        <v>6091.8666999999996</v>
+      </c>
+      <c r="G69" s="13">
+        <v>6211.3119999999999</v>
+      </c>
+      <c r="H69" s="13">
+        <v>6601.9859999999999</v>
+      </c>
+      <c r="I69" s="13">
+        <v>6355.893</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>6272.027</v>
+      </c>
+      <c r="E70" s="6">
+        <v>6430.8159999999998</v>
+      </c>
+      <c r="F70" s="6">
+        <v>6203.7910000000002</v>
+      </c>
+      <c r="G70" s="13">
+        <v>6338.9775</v>
+      </c>
+      <c r="H70" s="13">
+        <v>6432.3584000000001</v>
+      </c>
+      <c r="I70" s="13">
+        <v>6296.7943999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>6519.6367</v>
+      </c>
+      <c r="E71" s="6">
+        <v>6217.2524000000003</v>
+      </c>
+      <c r="F71" s="6">
+        <v>6497.9823999999999</v>
+      </c>
+      <c r="G71" s="13">
+        <v>6379.6073999999999</v>
+      </c>
+      <c r="H71" s="13">
+        <v>6119.625</v>
+      </c>
+      <c r="I71" s="13">
+        <v>6309.049</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>6376.924</v>
+      </c>
+      <c r="E72" s="6">
+        <v>6119.2152999999998</v>
+      </c>
+      <c r="F72" s="6">
+        <v>6234.4340000000002</v>
+      </c>
+      <c r="G72" s="13">
+        <v>6539.1959999999999</v>
+      </c>
+      <c r="H72" s="13">
+        <v>6152.4539999999997</v>
+      </c>
+      <c r="I72" s="13">
+        <v>6318.0195000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>6385.5129999999999</v>
+      </c>
+      <c r="D73" s="6">
+        <v>6415.9049999999997</v>
+      </c>
+      <c r="E73" s="6">
+        <v>6141.7114000000001</v>
+      </c>
+      <c r="F73" s="6">
+        <v>6600.2910000000002</v>
+      </c>
+      <c r="G73" s="13">
+        <v>6565.9624000000003</v>
+      </c>
+      <c r="H73" s="13">
+        <v>6344.2420000000002</v>
+      </c>
+      <c r="I73" s="13">
+        <v>6386.8222999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6">
+        <v>6373.3823000000002</v>
+      </c>
+      <c r="D74" s="6">
+        <v>6312.7669999999998</v>
+      </c>
+      <c r="E74" s="6">
+        <v>6413.5140000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>6337.55</v>
+      </c>
+      <c r="G74" s="13">
+        <v>6526.4706999999999</v>
+      </c>
+      <c r="H74" s="13">
+        <v>6202.6845999999996</v>
+      </c>
+      <c r="I74" s="13">
+        <v>6512.1157000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6">
+        <v>6397.223</v>
+      </c>
+      <c r="D75" s="6">
+        <v>6308.85</v>
+      </c>
+      <c r="E75" s="6">
+        <v>6210.2420000000002</v>
+      </c>
+      <c r="F75" s="6">
+        <v>6537.768</v>
+      </c>
+      <c r="G75" s="13">
+        <v>6549.4443000000001</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>6429.9233000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <v>6303.3829999999998</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6140.3490000000002</v>
+      </c>
+      <c r="E76" s="6">
+        <v>6547.8247000000001</v>
+      </c>
+      <c r="F76" s="6">
+        <v>6490.0356000000002</v>
+      </c>
+      <c r="G76" s="13">
+        <v>6219.2606999999998</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>6509.152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>6346.5933000000005</v>
+      </c>
+      <c r="D77" s="6">
+        <v>6119.87</v>
+      </c>
+      <c r="E77" s="6">
+        <v>6278.0464000000002</v>
+      </c>
+      <c r="F77" s="6">
+        <v>6385.8590000000004</v>
+      </c>
+      <c r="G77" s="13">
+        <v>6071.6719999999996</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>6486.3446999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <v>6276.3010000000004</v>
+      </c>
+      <c r="D78" s="6">
+        <v>6098.4110000000001</v>
+      </c>
+      <c r="E78" s="6">
+        <v>6577.3209999999999</v>
+      </c>
+      <c r="F78" s="6">
+        <v>6455.6532999999999</v>
+      </c>
+      <c r="G78" s="13">
+        <v>6336.2539999999999</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>6341.15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6225.1189999999997</v>
+      </c>
+      <c r="D79" s="6">
+        <v>6583.7793000000001</v>
+      </c>
+      <c r="E79" s="6">
+        <v>6516.7686000000003</v>
+      </c>
+      <c r="F79" s="6">
+        <v>6552.9930000000004</v>
+      </c>
+      <c r="G79" s="13">
+        <v>6550.0540000000001</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>6388.2470000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3042,10 +4919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:I37"/>
+  <dimension ref="B3:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B26" sqref="B25:I37"/>
+    <sheetView topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,16 +4938,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -3409,357 +5286,1015 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="17">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11">
         <v>2015</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <v>2016</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>2017</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>2018</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>2019</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="11">
         <v>2020</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>2021</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="15">
         <v>0.35735963999999998</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="15">
         <v>0.41047041000000001</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="15">
         <v>0.60622155</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="15">
         <v>8.3459790000000006E-2</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="15">
         <v>0.28376328000000001</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="15">
         <v>0.46054627999999997</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="15">
         <v>0.37784521999999998</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="15">
         <v>0.72230653</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="15">
         <v>0.52807283999999999</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="15">
         <v>0.43399090000000001</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="15">
         <v>0.36798178999999998</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="15">
         <v>0.19423368999999999</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="15">
         <v>0.12367222999999999</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="15">
         <v>0.54324733999999997</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="15">
         <v>0.44385432000000002</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="15">
         <v>0.40515932999999998</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="15">
         <v>9.4840670000000002E-2</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="15">
         <v>0.26403641999999999</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="15">
         <v>0.41881638999999998</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="15">
         <v>0.34294384999999999</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="15">
         <v>0.46889226000000001</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="15">
         <v>0.95447647999999996</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>0.35660090999999999</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="15">
         <v>0.25796661999999998</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="15">
         <v>0.44006070000000003</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="15">
         <v>0.45371774999999998</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="15">
         <v>0.44385432000000002</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="15">
         <v>0.21851290000000001</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="15">
         <v>9.6358120000000005E-2</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="15">
         <v>0.87405158999999999</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="15">
         <v>0.12974203000000001</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="15">
         <v>0.50151745000000003</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="15">
         <v>0.28603944999999997</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="15">
         <v>0.24127466</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="15">
         <v>0.52579666000000003</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="15">
         <v>0.44006070000000003</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>0.46054627999999997</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>0.42033384000000001</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="15">
         <v>0.4522003</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>1</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <v>9.7116839999999996E-2</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <v>0.32852807000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="15">
         <v>0.27541729999999998</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <v>0.79666161000000002</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="15">
         <v>0.52427921</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="15">
         <v>0.32397572000000002</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="15">
         <v>2.4279209999999999E-2</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="15">
         <v>0.19119879000000001</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="15">
         <v>0.43702580000000002</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="15">
         <v>0.89908953000000003</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="15">
         <v>0.26555387000000003</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="15">
         <v>0.24127466</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="15">
         <v>0.86570561000000001</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="15">
         <v>0.11001517</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="15">
         <v>0.46889226000000001</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="15">
         <v>0.63960545999999996</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="15">
         <v>1.517451E-2</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="15">
         <v>0.30576630999999999</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="15">
         <v>0.19195751</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="15">
         <v>0.44006070000000003</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="15">
         <v>9.4840670000000002E-2</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="15">
         <v>0.83990894999999999</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="15">
         <v>0.46509863000000001</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="15">
         <v>0.44461305000000001</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="15">
         <v>0.93930197000000004</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="15">
         <v>0.51138088000000004</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="15">
         <v>0.48634294</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="15">
         <v>0.10622155</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="15">
         <v>0.95827010999999995</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="15">
         <v>0.26403641999999999</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="15">
         <v>0.44006070000000003</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="15">
         <v>0.20789073999999999</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="15">
         <v>0.10698027</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="15">
         <v>0.43019727000000002</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="15">
         <v>0.67602428000000003</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="15">
         <v>0.65326251999999996</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="15">
         <v>0.67981791000000003</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="15">
         <v>0.29210925999999998</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="15">
         <v>0</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="15">
         <v>0.89377845</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="15">
         <v>0.41274659000000002</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="15">
         <v>0.40288316000000002</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="15">
         <v>0.70182093999999995</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="15">
         <v>0.45599392999999999</v>
       </c>
     </row>
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.40645564000000001</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.35665165999999998</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.14920149999999999</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.48909828</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.37934040000000002</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.44435312999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>0.34841800000000001</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.28224373000000003</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.38821492000000002</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.48149081999999999</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.24938446</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.52684390000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>0.40703810000000001</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.28197717999999999</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.24035277999999999</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.47336528</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.41164726000000001</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.46939864999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>0.46329248000000001</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.34007274999999998</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.32942547999999999</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.39280929999999997</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.43177310000000002</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.47874123000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>0.43857014</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.2866591</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.37965462</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.41445460000000001</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.39925276999999998</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.50636749999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.45964260000000001</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.27439596999999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.47869541999999998</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.38168239999999998</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.43628951999999999</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0.44936535</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.38240953999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.36388856000000003</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.43952888000000001</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.30778664</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.4293034</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.18438578999999999</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.38271168</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.4844617</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.42917847999999997</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.25774627999999999</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.34602618000000002</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.45579255000000002</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.32790281999999998</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0.38086066000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.16087953999999999</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.50721769999999999</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.42732376</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.27257490000000001</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.30358878</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0.36822106999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.38925920000000003</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.49075222000000002</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.37145242000000001</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.44986130000000002</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.27743885000000001</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0.46885017000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.24355850000000001</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.25920655999999997</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.36229938</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.36286962</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.44951573</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0.47055839999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.36560981999999997</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.30209920000000001</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.45983220000000002</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.43209199999999998</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.16971315000000001</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0.36047362999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>3406.7085000000002</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3341.067</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3067.6477</v>
+      </c>
+      <c r="G68" s="13">
+        <v>3515.6316000000002</v>
+      </c>
+      <c r="H68" s="13">
+        <v>3370.9704999999999</v>
+      </c>
+      <c r="I68" s="13">
+        <v>3456.6572000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>3330.2148000000002</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3242.9969999999998</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3382.6671999999999</v>
+      </c>
+      <c r="G69" s="13">
+        <v>3505.6046999999999</v>
+      </c>
+      <c r="H69" s="13">
+        <v>3199.6889999999999</v>
+      </c>
+      <c r="I69" s="13">
+        <v>3565.3804</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>3407.4762999999998</v>
+      </c>
+      <c r="E70" s="6">
+        <v>3242.6457999999998</v>
+      </c>
+      <c r="F70" s="6">
+        <v>3187.7849999999999</v>
+      </c>
+      <c r="G70" s="13">
+        <v>3494.8953000000001</v>
+      </c>
+      <c r="H70" s="13">
+        <v>3413.5509999999999</v>
+      </c>
+      <c r="I70" s="13">
+        <v>3489.6675</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>3481.6196</v>
+      </c>
+      <c r="E71" s="6">
+        <v>3319.2159999999999</v>
+      </c>
+      <c r="F71" s="6">
+        <v>3305.1828999999998</v>
+      </c>
+      <c r="G71" s="13">
+        <v>3388.7226999999998</v>
+      </c>
+      <c r="H71" s="13">
+        <v>3440.0770000000002</v>
+      </c>
+      <c r="I71" s="13">
+        <v>3501.9810000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>3449.0354000000002</v>
+      </c>
+      <c r="E72" s="6">
+        <v>3248.817</v>
+      </c>
+      <c r="F72" s="6">
+        <v>3371.3847999999998</v>
+      </c>
+      <c r="G72" s="13">
+        <v>3417.2512000000002</v>
+      </c>
+      <c r="H72" s="13">
+        <v>3397.2152999999998</v>
+      </c>
+      <c r="I72" s="13">
+        <v>3538.3926000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>3476.8087999999998</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3232.6538</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3501.9204</v>
+      </c>
+      <c r="F73" s="6">
+        <v>3374.0574000000001</v>
+      </c>
+      <c r="G73" s="13">
+        <v>3446.0295000000001</v>
+      </c>
+      <c r="H73" s="13">
+        <v>3463.2633999999998</v>
+      </c>
+      <c r="I73" s="13">
+        <v>3375.0156000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6">
+        <v>3350.6052</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3450.299</v>
+      </c>
+      <c r="E74" s="6">
+        <v>3276.6628000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3436.8218000000002</v>
+      </c>
+      <c r="G74" s="13">
+        <v>3114.0203000000001</v>
+      </c>
+      <c r="H74" s="13">
+        <v>3375.4137999999998</v>
+      </c>
+      <c r="I74" s="13">
+        <v>3509.5205000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6">
+        <v>3436.6572000000001</v>
+      </c>
+      <c r="D75" s="6">
+        <v>3210.7096999999999</v>
+      </c>
+      <c r="E75" s="6">
+        <v>3327.0625</v>
+      </c>
+      <c r="F75" s="6">
+        <v>3471.7345999999998</v>
+      </c>
+      <c r="G75" s="13">
+        <v>3303.1758</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>3372.9744000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3083.0392999999999</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3539.5131999999999</v>
+      </c>
+      <c r="E76" s="6">
+        <v>3434.2125999999998</v>
+      </c>
+      <c r="F76" s="6">
+        <v>3230.2537000000002</v>
+      </c>
+      <c r="G76" s="13">
+        <v>3271.1300999999999</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>3356.3152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>3384.0437000000002</v>
+      </c>
+      <c r="D77" s="6">
+        <v>3517.8112999999998</v>
+      </c>
+      <c r="E77" s="6">
+        <v>3360.5745000000002</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3463.9169999999999</v>
+      </c>
+      <c r="G77" s="13">
+        <v>3236.6642999999999</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>3488.9443000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <v>3192.0102999999999</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3212.634</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3348.5104999999999</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3349.2622000000001</v>
+      </c>
+      <c r="G78" s="13">
+        <v>3463.4616999999998</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>3491.1958</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6">
+        <v>3352.8737999999998</v>
+      </c>
+      <c r="D79" s="6">
+        <v>3269.1667000000002</v>
+      </c>
+      <c r="E79" s="6">
+        <v>3477.0587999999998</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3440.4973</v>
+      </c>
+      <c r="G79" s="13">
+        <v>3094.6819999999998</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>3346.1042000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3767,10 +6302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:I37"/>
+  <dimension ref="B3:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:I37"/>
+    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,16 +6321,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
@@ -4134,357 +6669,1015 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="17">
+      <c r="B25" s="9"/>
+      <c r="C25" s="11">
         <v>2015</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <v>2016</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>2017</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>2018</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="11">
         <v>2019</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="11">
         <v>2020</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="11">
         <v>2021</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="15">
         <v>0.44779116000000002</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="15">
         <v>0.23092368999999999</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="15">
         <v>0.82128513999999997</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="15">
         <v>0.62048192999999996</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="15">
         <v>0.84939759000000004</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="15">
         <v>0.66265059999999998</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="15">
         <v>0.81726907999999998</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="15">
         <v>0.24497991999999999</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="15">
         <v>0.35542169000000001</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="15">
         <v>0.39558232999999998</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="15">
         <v>0.47791165000000002</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="15">
         <v>0.17871486</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="15">
         <v>0.22289157000000001</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="15">
         <v>0.40160643000000001</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="15">
         <v>0.40763052</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="15">
         <v>0.42168675</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="15">
         <v>0.2188755</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="15">
         <v>0.22891565999999999</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="15">
         <v>0.51204819000000001</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="15">
         <v>0.84337348999999995</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="15">
         <v>0.26305221000000001</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="15">
         <v>0.55823292999999996</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>0.46385542000000002</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="15">
         <v>0.41967871000000001</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="15">
         <v>0.66465863000000003</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="15">
         <v>0.31927710999999998</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="15">
         <v>0.2188755</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="15">
         <v>0.60240963999999997</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="15">
         <v>0.22289157000000001</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="15">
         <v>0.82530119999999996</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="15">
         <v>0.55823292999999996</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="15">
         <v>0.67269076000000005</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="15">
         <v>0.66465863000000003</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="15">
         <v>0.39558232999999998</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="15">
         <v>0.43975903999999999</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="15">
         <v>0.29518072000000001</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>0.937751</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>0.41164658999999998</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="15">
         <v>0.24497991999999999</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>0.2188755</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <v>1</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <v>0.13453815</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="15">
         <v>0.60441767000000002</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="15">
         <v>0.66867469999999996</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="15">
         <v>0.40562249</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="15">
         <v>0.46787149</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="15">
         <v>0.84337348999999995</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="15">
         <v>0.437751</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="15">
         <v>0.44176706999999998</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="15">
         <v>0.47188754999999999</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="15">
         <v>0.22489960000000001</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="15">
         <v>0.35542169000000001</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="15">
         <v>0.39156626999999999</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="15">
         <v>0.22289157000000001</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="15">
         <v>0.24899598000000001</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="15">
         <v>0.24497991999999999</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="15">
         <v>0.84337348999999995</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="15">
         <v>8.8353409999999993E-2</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="15">
         <v>0.89156626999999999</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="15">
         <v>0.65662651000000005</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="15">
         <v>0.89156626999999999</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="15">
         <v>0.44578313000000003</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="15">
         <v>0.60240963999999997</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="15">
         <v>0.40361446000000001</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="15">
         <v>0.26506024</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="15">
         <v>0.66867469999999996</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="15">
         <v>0.52008032000000004</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="15">
         <v>0</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="15">
         <v>0.21485944000000001</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="15">
         <v>0.80321284999999998</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="15">
         <v>0.82128513999999997</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="15">
         <v>0.36947791000000002</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="15">
         <v>0.17469879999999999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="15">
         <v>0.66265059999999998</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="15">
         <v>0.22289157000000001</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="15">
         <v>0.75903613999999997</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="15">
         <v>0.22289157000000001</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="15">
         <v>0.44578313000000003</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="15">
         <v>0.47188754999999999</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="15">
         <v>0.41767068000000002</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="15">
         <v>0.48393574</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="15">
         <v>0.47590360999999998</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="15">
         <v>0.46787149</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="15">
         <v>0.48995983999999998</v>
       </c>
     </row>
+    <row r="45" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>0.41112749999999998</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.70110934999999996</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.47842234</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.43707364999999998</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.67933463999999999</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.57900995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
+        <v>0.35973513000000001</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.62317109999999998</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.39058377999999999</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.34871593000000001</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.41232184</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.40357535999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>0.52149559999999995</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.51834446000000001</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.42970476000000002</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.42119864000000001</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.71825280000000002</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.48661768</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>0.43752459999999999</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.48805565000000001</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.60640810000000001</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.38245249999999997</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.49695613999999999</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.37183909999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>0.55299609999999999</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.50192784999999995</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.48099370000000002</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.51487499999999997</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.48567060000000001</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0.46949422000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.56023942999999998</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.53257209999999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.41763440000000002</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.42079403999999998</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.3801196</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0.42199352000000001</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0.40211712999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.62554160000000003</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.40748459999999997</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.5457187</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.46907246000000002</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.63446957000000004</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0.52603580000000005</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.57023245</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.55391520000000005</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.35216877000000002</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.57947490000000001</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.52753985000000003</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.41833295999999998</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0.60548394999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.48974626999999998</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.36720246000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.52357589999999998</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.45074195</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.54590004999999997</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0.55090742999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.49410125999999999</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.38604948</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.42189031999999999</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.41721943</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.35959153999999999</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0.55574679999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.46946632999999999</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.4492237</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.43461558</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.53814989999999996</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.59361589999999997</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0.59008640000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.34646335</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.57561076</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.44413686000000002</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.40950375999999999</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.42384013999999998</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0.47519479999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="4">
+        <v>2015</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G67" s="4">
+        <v>2019</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I67" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>2438.7415000000001</v>
+      </c>
+      <c r="E68" s="6">
+        <v>2583.1525999999999</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2472.2541999999999</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2451.6626000000001</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2572.3085999999998</v>
+      </c>
+      <c r="I68" s="13">
+        <v>2522.3470000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>2413.1480000000001</v>
+      </c>
+      <c r="E69" s="6">
+        <v>2544.3389999999999</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2428.5106999999998</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2407.6604000000002</v>
+      </c>
+      <c r="H69" s="13">
+        <v>2439.3364000000001</v>
+      </c>
+      <c r="I69" s="13">
+        <v>2434.9805000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>2493.7046</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2492.1354999999999</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2447.9929999999999</v>
+      </c>
+      <c r="G70" s="13">
+        <v>2443.7570000000001</v>
+      </c>
+      <c r="H70" s="13">
+        <v>2591.69</v>
+      </c>
+      <c r="I70" s="13">
+        <v>2476.3353999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>2451.8874999999998</v>
+      </c>
+      <c r="E71" s="6">
+        <v>2477.0518000000002</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2535.9911999999999</v>
+      </c>
+      <c r="G71" s="13">
+        <v>2424.4614000000001</v>
+      </c>
+      <c r="H71" s="13">
+        <v>2481.4843999999998</v>
+      </c>
+      <c r="I71" s="13">
+        <v>2419.1758</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>2509.3919999999998</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2483.96</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2473.5349999999999</v>
+      </c>
+      <c r="G72" s="13">
+        <v>2490.4077000000002</v>
+      </c>
+      <c r="H72" s="13">
+        <v>2475.864</v>
+      </c>
+      <c r="I72" s="13">
+        <v>2467.808</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2512.9992999999999</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2499.221</v>
+      </c>
+      <c r="E73" s="6">
+        <v>2441.982</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2443.5554000000002</v>
+      </c>
+      <c r="G73" s="13">
+        <v>2423.2995999999998</v>
+      </c>
+      <c r="H73" s="13">
+        <v>2444.1527999999998</v>
+      </c>
+      <c r="I73" s="13">
+        <v>2434.2543999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2545.5198</v>
+      </c>
+      <c r="D74" s="6">
+        <v>2436.9272000000001</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2505.7678000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2467.5981000000002</v>
+      </c>
+      <c r="G74" s="13">
+        <v>2549.9657999999999</v>
+      </c>
+      <c r="H74" s="13">
+        <v>2495.9657999999999</v>
+      </c>
+      <c r="I74" s="13">
+        <v>2517.9758000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2509.8496</v>
+      </c>
+      <c r="D75" s="6">
+        <v>2409.38</v>
+      </c>
+      <c r="E75" s="6">
+        <v>2522.5785999999998</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2496.7148000000002</v>
+      </c>
+      <c r="G75" s="13">
+        <v>2442.3298</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>2535.5309999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="6">
+        <v>2477.8935999999999</v>
+      </c>
+      <c r="D76" s="6">
+        <v>2416.8667</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2494.7406999999998</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2458.4695000000002</v>
+      </c>
+      <c r="G76" s="13">
+        <v>2505.8582000000001</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>2508.3519999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="6">
+        <v>2480.0623000000001</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2426.2523999999999</v>
+      </c>
+      <c r="E77" s="6">
+        <v>2444.1012999999998</v>
+      </c>
+      <c r="F77" s="6">
+        <v>2441.7754</v>
+      </c>
+      <c r="G77" s="13">
+        <v>2413.0767000000001</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>2510.7617</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2467.7941999999998</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2457.7134000000001</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2450.4385000000002</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2501.9985000000001</v>
+      </c>
+      <c r="G78" s="13">
+        <v>2529.6208000000001</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>2527.8629999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2406.5385999999999</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2520.654</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2455.1799999999998</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2437.9328999999998</v>
+      </c>
+      <c r="G79" s="13">
+        <v>2445.0722999999998</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>2470.6469999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B66:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
